--- a/predictions/multiple/Comorbilidades.xlsx
+++ b/predictions/multiple/Comorbilidades.xlsx
@@ -457,10 +457,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.5034248104288487</v>
+        <v>0.5350480538400124</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9899757429407314</v>
+        <v>0.9893460570086231</v>
       </c>
     </row>
     <row r="3">
@@ -470,10 +470,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.2504998433767401</v>
+        <v>0.2464913649298663</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9951039742616032</v>
+        <v>0.995182320073653</v>
       </c>
     </row>
     <row r="4">
@@ -483,10 +483,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.2824746944196826</v>
+        <v>0.2843323043362515</v>
       </c>
       <c r="C4" t="n">
-        <v>0.994565815001819</v>
+        <v>0.9945300787176827</v>
       </c>
     </row>
     <row r="5">
@@ -496,10 +496,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.4140045712099688</v>
+        <v>0.4076194025990526</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9918363966785351</v>
+        <v>0.9919623034614671</v>
       </c>
     </row>
     <row r="6">
@@ -509,10 +509,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.484259476546469</v>
+        <v>0.4819849519127355</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9857760306250565</v>
+        <v>0.9858428393718124</v>
       </c>
     </row>
     <row r="7">
@@ -522,10 +522,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.09540312195545657</v>
+        <v>0.09307204221388866</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9986815030228093</v>
+        <v>0.9987137191760111</v>
       </c>
     </row>
     <row r="8">
@@ -535,10 +535,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.03233206082538135</v>
+        <v>0.03277945794851175</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9996667603431256</v>
+        <v>0.9996621491163744</v>
       </c>
     </row>
     <row r="9">
@@ -548,10 +548,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.1080145202225072</v>
+        <v>0.1088818260756941</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9993565883220321</v>
+        <v>0.9993514220285268</v>
       </c>
     </row>
     <row r="10">
@@ -561,10 +561,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.0670125209201065</v>
+        <v>0.06806615379549927</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9987758399422189</v>
+        <v>0.9987565925648046</v>
       </c>
     </row>
     <row r="11">
@@ -574,10 +574,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.1251205524058874</v>
+        <v>0.1254626379532701</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9907556377774751</v>
+        <v>0.9907303632510261</v>
       </c>
     </row>
     <row r="12">
@@ -587,10 +587,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.05185248315273058</v>
+        <v>0.05333686473030438</v>
       </c>
       <c r="C12" t="n">
-        <v>0.9984751069333436</v>
+        <v>0.9984314538035746</v>
       </c>
     </row>
     <row r="13">
@@ -600,10 +600,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.06145846799032255</v>
+        <v>0.06029622280516256</v>
       </c>
       <c r="C13" t="n">
-        <v>0.9994170388886221</v>
+        <v>0.9994280633050613</v>
       </c>
     </row>
     <row r="14">
@@ -613,10 +613,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.05569525221695371</v>
+        <v>0.05647353374328099</v>
       </c>
       <c r="C14" t="n">
-        <v>0.999245920664571</v>
+        <v>0.9992353832131224</v>
       </c>
     </row>
   </sheetData>
